--- a/text/画面定義書_M0005購入承認詳細画面.xlsx
+++ b/text/画面定義書_M0005購入承認詳細画面.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDFB8E5-0253-2B4F-B435-AE5880C7210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="20500" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -376,13 +377,6 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -433,18 +427,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -453,7 +447,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -461,7 +455,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -470,7 +464,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -562,13 +556,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -591,7 +588,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -634,7 +637,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -683,9 +692,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -723,7 +732,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -795,7 +804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -968,45 +977,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="37.1796875" customWidth="1"/>
-    <col min="5" max="5" width="44.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" customWidth="1"/>
+    <col min="5" max="5" width="44.1640625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="50.54296875" customWidth="1"/>
+    <col min="7" max="7" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1015,13 +1026,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="6" customFormat="1">
       <c r="A28" s="7">
         <v>1</v>
       </c>
@@ -1065,7 +1076,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="6" customFormat="1">
       <c r="A29" s="7">
         <v>2</v>
       </c>
@@ -1086,7 +1097,7 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="6" customFormat="1">
       <c r="A30" s="7">
         <v>3</v>
       </c>
@@ -1107,7 +1118,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="6" customFormat="1">
       <c r="A31" s="7">
         <v>4</v>
       </c>
@@ -1128,7 +1139,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="6" customFormat="1">
       <c r="A32" s="7">
         <v>5</v>
       </c>
@@ -1149,7 +1160,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="6" customFormat="1">
       <c r="A33" s="7">
         <v>6</v>
       </c>
@@ -1170,7 +1181,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="6" customFormat="1">
       <c r="A34" s="7">
         <v>6</v>
       </c>
@@ -1191,18 +1202,18 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="6" customFormat="1">
       <c r="A35" s="7">
         <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>24</v>
@@ -1221,26 +1232,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1251,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1262,7 +1273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1270,7 +1281,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1280,23 +1291,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12">
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1313,12 +1326,12 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1330,7 +1343,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
@@ -1345,9 +1358,9 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1360,7 +1373,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -1373,7 +1386,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1386,7 +1399,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1399,7 +1412,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1412,7 +1425,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1425,7 +1438,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1438,7 +1451,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1451,7 +1464,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1464,7 +1477,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1477,7 +1490,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1490,7 +1503,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1503,7 +1516,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1516,7 +1529,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1529,7 +1542,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1542,7 +1555,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
